--- a/test_cases/TC_05.xlsx
+++ b/test_cases/TC_05.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lucas/Documents/GitHub/TestingAplicaciones-BeSharps-TPO/test_cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tadeo\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94CA162F-4C3D-0344-A821-08D2FEC7B72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4674505F-D001-4814-B67D-A35A806F1FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2500" windowWidth="26440" windowHeight="14320" xr2:uid="{C8262639-7F50-C845-AFE2-EE69CD501B31}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{276B5E7C-98D5-4C84-A431-EB8E7222044E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,9 +35,138 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>QA Tester’s Log</t>
+  </si>
+  <si>
+    <t>Review comments from Jane incorprated in version 2.1</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>TC Priority (High, Normal, Low)</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>S #</t>
+  </si>
+  <si>
+    <t>Prerequisites:</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Pass = df12@434c</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>User Stories covered</t>
+  </si>
+  <si>
+    <t>Automation Status</t>
+  </si>
+  <si>
+    <t>Not Automated</t>
+  </si>
+  <si>
+    <t>Step #</t>
+  </si>
+  <si>
+    <t>Step Details</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>TC-05</t>
+  </si>
+  <si>
+    <t>Tadeo Pinque</t>
+  </si>
+  <si>
+    <t>Acceder a la Página Principal del eCommerce</t>
+  </si>
+  <si>
+    <t>//COMPLETAR//</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceso a internet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceso a Google Chrome </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estar logueado correctamente dentro de la pagina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar que el usuario pueda acceder a la pagina principal del eCommerce desde cada sub-sección del sitio web </t>
+  </si>
+  <si>
+    <t>Hacer click en cualquier sub-sección del sitio web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario es llevado a la sub-sección seleccionada  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario clickea el logo de la pagina </t>
+  </si>
+  <si>
+    <t>El usuario es llevado a la pagina principal del eCommerce.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar que no exista el boton para ir a la pagina principal dentro de la pagina principal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario acaba de ingresar a la pagina web </t>
+  </si>
+  <si>
+    <t>El usuario se encuentra en la pagina principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario hace click en el logo de la pagina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No debe suceder nada. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE-10 - 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE-10 - 2 </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -45,16 +174,79 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -62,15 +254,385 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{C9CD2D79-10C3-4446-A447-B919BEC46DCD}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{F57BD9B6-DA93-4B12-B50D-170ADE21926D}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{1A1B85FF-E14C-4550-8F92-CFCF200705F6}"/>
+    <cellStyle name="Note 2" xfId="2" xr:uid="{6EA66518-C77D-475D-AC1C-46B81B5D8117}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -381,13 +943,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509574B5-3BF6-6B4B-8001-FB7E8F0749F1}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E19B40-C547-4EF7-8C9B-00EC102B8878}">
+  <dimension ref="B3:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="7" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="2:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="7" spans="2:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="34">
+        <v>1</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="32">
+        <v>2</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="34">
+        <v>2</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="32">
+        <v>3</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="34">
+        <v>3</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="32">
+        <v>4</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="2:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B17" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="40">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="2:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="40">
+        <v>2</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="51"/>
+      <c r="E21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="40">
+        <v>3</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="40">
+        <v>4</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="40"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="40"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="2:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B31" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="53"/>
+      <c r="E31" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+    </row>
+    <row r="33" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="49"/>
+    </row>
+    <row r="34" spans="2:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="40">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="40">
+        <v>2</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="51"/>
+      <c r="E35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="40">
+        <v>3</v>
+      </c>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="40">
+        <v>4</v>
+      </c>
+      <c r="C37" s="50"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="40"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="40"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="C29:F30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>